--- a/semestrovka1/graphs/operations.xlsx
+++ b/semestrovka1/graphs/operations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24012"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BFA0C61-D6A0-460E-AA1E-50AA1FCF93A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BEC5216-2CEC-4553-AA08-C395A00D2C1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,17 +27,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,10 +56,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -118,8 +110,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Bloom Filter</a:t>
+              <a:rPr lang="az-Cyrl-AZ"/>
+              <a:t>Фильтр Блума</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -163,7 +155,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>addItem</c:v>
+            <c:v>AddItem</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -184,304 +176,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>309</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>546</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>574</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>787</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1047</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1181</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1554</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1596</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1675</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1685</c:v>
+                  <c:v>578</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1784</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1254</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1413</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>1877</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>1966</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2086</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2088</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2336</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2376</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2468</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2483</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2499</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2581</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>2667</c:v>
+                  <c:v>1924</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2853</c:v>
+                  <c:v>1942</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2863</c:v>
+                  <c:v>1969</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2876</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3315</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3434</c:v>
+                  <c:v>2401</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3446</c:v>
+                  <c:v>2613</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3529</c:v>
+                  <c:v>2617</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3585</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3630</c:v>
+                  <c:v>2835</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3787</c:v>
+                  <c:v>3442</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3902</c:v>
+                  <c:v>3458</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3904</c:v>
+                  <c:v>3753</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3972</c:v>
+                  <c:v>3822</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4049</c:v>
+                  <c:v>3877</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4102</c:v>
+                  <c:v>3901</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4151</c:v>
+                  <c:v>3930</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4172</c:v>
+                  <c:v>4082</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4252</c:v>
+                  <c:v>4319</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4297</c:v>
+                  <c:v>4567</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4342</c:v>
+                  <c:v>4586</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4383</c:v>
+                  <c:v>4635</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4460</c:v>
+                  <c:v>4901</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4816</c:v>
+                  <c:v>5228</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4847</c:v>
+                  <c:v>5397</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4862</c:v>
+                  <c:v>5634</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5087</c:v>
+                  <c:v>5791</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5201</c:v>
+                  <c:v>5848</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5277</c:v>
+                  <c:v>5888</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5419</c:v>
+                  <c:v>6202</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5617</c:v>
+                  <c:v>6596</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5700</c:v>
+                  <c:v>6697</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5735</c:v>
+                  <c:v>6704</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5902</c:v>
+                  <c:v>6759</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6092</c:v>
+                  <c:v>6783</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6131</c:v>
+                  <c:v>6951</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6246</c:v>
+                  <c:v>6999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6266</c:v>
+                  <c:v>7021</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6450</c:v>
+                  <c:v>7071</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6735</c:v>
+                  <c:v>7085</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6804</c:v>
+                  <c:v>7088</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6843</c:v>
+                  <c:v>7139</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6946</c:v>
+                  <c:v>7139</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7054</c:v>
+                  <c:v>7255</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7106</c:v>
+                  <c:v>7375</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7175</c:v>
+                  <c:v>7484</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7328</c:v>
+                  <c:v>7495</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7596</c:v>
+                  <c:v>7549</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7617</c:v>
+                  <c:v>7765</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7992</c:v>
+                  <c:v>7839</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8011</c:v>
+                  <c:v>7850</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8072</c:v>
+                  <c:v>7924</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8163</c:v>
+                  <c:v>8006</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8235</c:v>
+                  <c:v>8150</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8312</c:v>
+                  <c:v>8258</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8449</c:v>
+                  <c:v>8385</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8574</c:v>
+                  <c:v>8393</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8612</c:v>
+                  <c:v>8490</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8643</c:v>
+                  <c:v>8533</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8712</c:v>
+                  <c:v>8537</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8728</c:v>
+                  <c:v>8662</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8730</c:v>
+                  <c:v>8811</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>8850</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8922</c:v>
+                  <c:v>8858</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8927</c:v>
+                  <c:v>8878</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9059</c:v>
+                  <c:v>8975</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9264</c:v>
+                  <c:v>9020</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9270</c:v>
+                  <c:v>9041</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9275</c:v>
+                  <c:v>9063</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9282</c:v>
+                  <c:v>9240</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9293</c:v>
+                  <c:v>9259</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9531</c:v>
+                  <c:v>9378</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9659</c:v>
+                  <c:v>9453</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9744</c:v>
+                  <c:v>9482</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9850</c:v>
+                  <c:v>9492</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9851</c:v>
+                  <c:v>9502</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9862</c:v>
+                  <c:v>9618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,304 +485,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>299</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>299</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>398</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>598</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>598</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1562</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>600</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>598</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>601</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1558</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>701</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1562</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>797</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1562</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1090</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>894</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>900</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1562</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1562</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1562</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1565</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1100</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1096</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1196</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1565</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1296</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1562</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1562</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1296</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1565</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1296</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1562</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1565</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1392</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1699</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1565</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1493</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1595</c:v>
+                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1595</c:v>
+                  <c:v>594</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1562</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1695</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1798</c:v>
+                  <c:v>611</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1565</c:v>
+                  <c:v>595</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1698</c:v>
+                  <c:v>634</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3120</c:v>
+                  <c:v>648</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1796</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1562</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1791</c:v>
+                  <c:v>688</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1565</c:v>
+                  <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1566</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2592</c:v>
+                  <c:v>733</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3127</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1565</c:v>
+                  <c:v>783</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2098</c:v>
+                  <c:v>735</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1562</c:v>
+                  <c:v>744</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1561</c:v>
+                  <c:v>763</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3124</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1562</c:v>
+                  <c:v>767</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1934</c:v>
+                  <c:v>732</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1562</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2889</c:v>
+                  <c:v>813</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3128</c:v>
+                  <c:v>834</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2390</c:v>
+                  <c:v>812</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2493</c:v>
+                  <c:v>862</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3124</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3120</c:v>
+                  <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3820</c:v>
+                  <c:v>844</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3124</c:v>
+                  <c:v>841</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3128</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2693</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4586</c:v>
+                  <c:v>799</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2792</c:v>
+                  <c:v>881</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3124</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3187</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2792</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4188</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2792</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2792</c:v>
+                  <c:v>949</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3123</c:v>
+                  <c:v>866</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2895</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1468</c:v>
+                  <c:v>913</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3989</c:v>
+                  <c:v>939</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2892</c:v>
+                  <c:v>963</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3127</c:v>
+                  <c:v>957</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2896</c:v>
+                  <c:v>1009</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3123</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3124</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3124</c:v>
+                  <c:v>986</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3291</c:v>
+                  <c:v>972</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3127</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3789</c:v>
+                  <c:v>981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,7 +790,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4551-4B01-8A90-03D325EFFB62}"/>
+              <c16:uniqueId val="{00000001-2ABD-47A8-9CD5-F54930467125}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -827,304 +819,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>309</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>546</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>574</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>787</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1047</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1181</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1554</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1596</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1675</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1685</c:v>
+                  <c:v>578</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1784</c:v>
+                  <c:v>795</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1254</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1413</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>1877</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>1966</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2086</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2088</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2336</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2376</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2468</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2483</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2499</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2581</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>2667</c:v>
+                  <c:v>1924</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2853</c:v>
+                  <c:v>1942</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2863</c:v>
+                  <c:v>1969</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2876</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3315</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3434</c:v>
+                  <c:v>2401</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3446</c:v>
+                  <c:v>2613</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3529</c:v>
+                  <c:v>2617</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3585</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3630</c:v>
+                  <c:v>2835</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3787</c:v>
+                  <c:v>3442</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3902</c:v>
+                  <c:v>3458</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3904</c:v>
+                  <c:v>3753</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3972</c:v>
+                  <c:v>3822</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4049</c:v>
+                  <c:v>3877</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4102</c:v>
+                  <c:v>3901</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4151</c:v>
+                  <c:v>3930</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4172</c:v>
+                  <c:v>4082</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4252</c:v>
+                  <c:v>4319</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4297</c:v>
+                  <c:v>4567</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4342</c:v>
+                  <c:v>4586</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4383</c:v>
+                  <c:v>4635</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4460</c:v>
+                  <c:v>4901</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4816</c:v>
+                  <c:v>5228</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4847</c:v>
+                  <c:v>5397</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4862</c:v>
+                  <c:v>5634</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5087</c:v>
+                  <c:v>5791</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5201</c:v>
+                  <c:v>5848</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5277</c:v>
+                  <c:v>5888</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5419</c:v>
+                  <c:v>6202</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5617</c:v>
+                  <c:v>6596</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5700</c:v>
+                  <c:v>6697</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5735</c:v>
+                  <c:v>6704</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5902</c:v>
+                  <c:v>6759</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6092</c:v>
+                  <c:v>6783</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6131</c:v>
+                  <c:v>6951</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6246</c:v>
+                  <c:v>6999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6266</c:v>
+                  <c:v>7021</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6450</c:v>
+                  <c:v>7071</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6735</c:v>
+                  <c:v>7085</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6804</c:v>
+                  <c:v>7088</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6843</c:v>
+                  <c:v>7139</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6946</c:v>
+                  <c:v>7139</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7054</c:v>
+                  <c:v>7255</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7106</c:v>
+                  <c:v>7375</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7175</c:v>
+                  <c:v>7484</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7328</c:v>
+                  <c:v>7495</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7596</c:v>
+                  <c:v>7549</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7617</c:v>
+                  <c:v>7765</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7992</c:v>
+                  <c:v>7839</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8011</c:v>
+                  <c:v>7850</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8072</c:v>
+                  <c:v>7924</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8163</c:v>
+                  <c:v>8006</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8235</c:v>
+                  <c:v>8150</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8312</c:v>
+                  <c:v>8258</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8449</c:v>
+                  <c:v>8385</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8574</c:v>
+                  <c:v>8393</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8612</c:v>
+                  <c:v>8490</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8643</c:v>
+                  <c:v>8533</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8712</c:v>
+                  <c:v>8537</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8728</c:v>
+                  <c:v>8662</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8730</c:v>
+                  <c:v>8811</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>8850</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8922</c:v>
+                  <c:v>8858</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8927</c:v>
+                  <c:v>8878</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9059</c:v>
+                  <c:v>8975</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9264</c:v>
+                  <c:v>9020</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9270</c:v>
+                  <c:v>9041</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9275</c:v>
+                  <c:v>9063</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9282</c:v>
+                  <c:v>9240</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9293</c:v>
+                  <c:v>9259</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9531</c:v>
+                  <c:v>9378</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9659</c:v>
+                  <c:v>9453</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9744</c:v>
+                  <c:v>9482</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9850</c:v>
+                  <c:v>9492</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9851</c:v>
+                  <c:v>9502</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9862</c:v>
+                  <c:v>9618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,304 +1128,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>499</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3392</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3127</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>897</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2293</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2497</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3128</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>398</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>860</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1592</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>797</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>798</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3124</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1696</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2593</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3124</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1562</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1360</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1562</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3091</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1895</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1562</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1566</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>2094</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>598</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1396</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1562</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="52">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>4794</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1558</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3124</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3125</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2792</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3124</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1499</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>897</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2294</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1562</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1595</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1396</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1562</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2689</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1595</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1565</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1196</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1563</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2194</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1562</c:v>
-                </c:pt>
                 <c:pt idx="61">
-                  <c:v>3120</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2792</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3124</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3124</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1562</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3731</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1196</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3123</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1097</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1495</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>897</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3124</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>797</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2004</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2194</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3590</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1396</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1396</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>698</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>398</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>399</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3127</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1795</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2892</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1562</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2554</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1562</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3124</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1196</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1561</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>897</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,12 +1433,11 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4551-4B01-8A90-03D325EFFB62}"/>
+              <c16:uniqueId val="{00000003-2ABD-47A8-9CD5-F54930467125}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1454,14 +1445,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1008342215"/>
-        <c:axId val="666108088"/>
+        <c:axId val="80088072"/>
+        <c:axId val="879537687"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1008342215"/>
+        <c:axId val="80088072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10000"/>
+          <c:max val="10100"/>
           <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1501,7 +1492,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="az-Cyrl-AZ"/>
-                  <a:t>количество элементов во входных данных</a:t>
+                  <a:t>количество элементов в наборе</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1535,7 +1526,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1572,15 +1563,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666108088"/>
+        <c:crossAx val="879537687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="666108088"/>
+        <c:axId val="879537687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1619,7 +1609,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="az-Cyrl-AZ"/>
-                  <a:t>время выполнения операции (мкс)</a:t>
+                  <a:t>время выполнения операция (в мкс)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1690,7 +1680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1008342215"/>
+        <c:crossAx val="80088072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2330,23 +2320,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6">
+        <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC10EDB-E6DA-472A-A606-4D8217752351}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E39EDF41-69AF-4B6F-A9D4-3303D756B628}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,944 +2657,944 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="B1">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>499</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>3392</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>546</v>
+        <v>200</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>3127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>574</v>
+        <v>220</v>
       </c>
       <c r="B4">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>897</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>787</v>
+        <v>256</v>
       </c>
       <c r="B5">
-        <v>299</v>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>2293</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1047</v>
+        <v>283</v>
       </c>
       <c r="B6">
-        <v>398</v>
-      </c>
-      <c r="C6">
-        <v>2497</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="1">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1181</v>
+        <v>285</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>3128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1554</v>
+        <v>343</v>
       </c>
       <c r="B8">
-        <v>598</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>398</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1596</v>
+        <v>434</v>
       </c>
       <c r="B9">
-        <v>598</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>860</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1675</v>
+        <v>476</v>
       </c>
       <c r="B10">
-        <v>1562</v>
+        <v>53</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1685</v>
+        <v>578</v>
       </c>
       <c r="B11">
-        <v>600</v>
+        <v>53</v>
       </c>
       <c r="C11">
-        <v>1592</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1784</v>
+        <v>795</v>
       </c>
       <c r="B12">
-        <v>598</v>
+        <v>87</v>
       </c>
       <c r="C12">
-        <v>797</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1877</v>
+        <v>802</v>
       </c>
       <c r="B13">
-        <v>601</v>
+        <v>70</v>
       </c>
       <c r="C13">
-        <v>798</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1966</v>
+        <v>861</v>
       </c>
       <c r="B14">
-        <v>1558</v>
+        <v>88</v>
       </c>
       <c r="C14">
-        <v>3124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>2017</v>
+        <v>1254</v>
       </c>
       <c r="B15">
-        <v>701</v>
+        <v>131</v>
       </c>
       <c r="C15">
-        <v>1696</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2086</v>
+        <v>1300</v>
       </c>
       <c r="B16">
-        <v>1562</v>
+        <v>144</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>2088</v>
+        <v>1318</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2336</v>
+        <v>1413</v>
       </c>
       <c r="B18">
-        <v>797</v>
+        <v>158</v>
       </c>
       <c r="C18">
-        <v>2593</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>2376</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
+      <c r="A19">
+        <v>1443</v>
+      </c>
+      <c r="B19">
+        <v>143</v>
       </c>
       <c r="C19">
-        <v>3124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2468</v>
+        <v>1572</v>
       </c>
       <c r="B20">
-        <v>1562</v>
+        <v>156</v>
       </c>
       <c r="C20">
-        <v>1562</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2483</v>
+        <v>1720</v>
       </c>
       <c r="B21">
-        <v>1090</v>
+        <v>181</v>
       </c>
       <c r="C21">
-        <v>1360</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2499</v>
+        <v>1858</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="C22">
-        <v>1562</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2581</v>
+        <v>1877</v>
       </c>
       <c r="B23">
-        <v>894</v>
+        <v>189</v>
       </c>
       <c r="C23">
-        <v>3091</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2667</v>
+        <v>1924</v>
       </c>
       <c r="B24">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="C24">
-        <v>1895</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2853</v>
+        <v>1942</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
-        <v>2863</v>
-      </c>
-      <c r="B26">
-        <v>1562</v>
+      <c r="A26" s="1">
+        <v>1969</v>
+      </c>
+      <c r="B26" s="1">
+        <v>176</v>
       </c>
       <c r="C26">
-        <v>1562</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2876</v>
+        <v>1990</v>
       </c>
       <c r="B27">
-        <v>1562</v>
+        <v>188</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3315</v>
+        <v>2035</v>
       </c>
       <c r="B28">
-        <v>1562</v>
+        <v>195</v>
       </c>
       <c r="C28">
-        <v>1566</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3434</v>
+        <v>2401</v>
       </c>
       <c r="B29">
-        <v>1565</v>
+        <v>245</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>3446</v>
+        <v>2613</v>
       </c>
       <c r="B30">
-        <v>1100</v>
+        <v>287</v>
       </c>
       <c r="C30">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>3529</v>
+        <v>2617</v>
       </c>
       <c r="B31">
-        <v>1096</v>
+        <v>282</v>
       </c>
       <c r="C31">
-        <v>2094</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>3585</v>
+        <v>2700</v>
       </c>
       <c r="B32">
-        <v>1196</v>
+        <v>284</v>
       </c>
       <c r="C32">
-        <v>598</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>3630</v>
+        <v>2835</v>
       </c>
       <c r="B33">
-        <v>1565</v>
+        <v>309</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>3787</v>
+        <v>3442</v>
       </c>
       <c r="B34">
-        <v>1296</v>
+        <v>349</v>
       </c>
       <c r="C34">
-        <v>1396</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>3902</v>
+        <v>3458</v>
       </c>
       <c r="B35">
-        <v>1562</v>
+        <v>381</v>
       </c>
       <c r="C35">
-        <v>1562</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>3904</v>
+        <v>3753</v>
       </c>
       <c r="B36" s="1">
-        <v>1562</v>
+        <v>354</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>3972</v>
+        <v>3822</v>
       </c>
       <c r="B37">
-        <v>1296</v>
+        <v>363</v>
       </c>
       <c r="C37">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>4049</v>
+        <v>3877</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="C38">
-        <v>4794</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>4102</v>
+        <v>3901</v>
       </c>
       <c r="B39">
-        <v>1565</v>
+        <v>422</v>
       </c>
       <c r="C39">
-        <v>1558</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>4151</v>
+        <v>3930</v>
       </c>
       <c r="B40">
-        <v>1296</v>
+        <v>386</v>
       </c>
       <c r="C40">
-        <v>997</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>4172</v>
+        <v>4082</v>
       </c>
       <c r="B41">
-        <v>1562</v>
+        <v>406</v>
       </c>
       <c r="C41">
-        <v>3124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>4252</v>
+        <v>4319</v>
       </c>
       <c r="B42">
-        <v>1565</v>
+        <v>474</v>
       </c>
       <c r="C42">
-        <v>3125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
-        <v>4297</v>
-      </c>
-      <c r="B43">
-        <v>1392</v>
+      <c r="A43" s="1">
+        <v>4567</v>
+      </c>
+      <c r="B43" s="1">
+        <v>484</v>
       </c>
       <c r="C43">
-        <v>2792</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>4342</v>
+        <v>4586</v>
       </c>
       <c r="B44">
-        <v>1699</v>
+        <v>472</v>
       </c>
       <c r="C44">
-        <v>394</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>4383</v>
+        <v>4635</v>
       </c>
       <c r="B45">
-        <v>1565</v>
+        <v>471</v>
       </c>
       <c r="C45">
-        <v>3124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>4460</v>
+        <v>4901</v>
       </c>
       <c r="B46">
-        <v>1493</v>
+        <v>511</v>
       </c>
       <c r="C46">
-        <v>1499</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>4816</v>
+        <v>5228</v>
       </c>
       <c r="B47">
-        <v>1595</v>
+        <v>556</v>
       </c>
       <c r="C47">
-        <v>897</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>4847</v>
-      </c>
-      <c r="B48">
-        <v>1595</v>
-      </c>
-      <c r="C48">
-        <v>2294</v>
+        <v>5397</v>
+      </c>
+      <c r="B48" s="1">
+        <v>594</v>
+      </c>
+      <c r="C48" s="1">
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>4862</v>
+        <v>5634</v>
       </c>
       <c r="B49">
-        <v>1562</v>
+        <v>591</v>
       </c>
       <c r="C49">
-        <v>1562</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>5087</v>
+        <v>5791</v>
       </c>
       <c r="B50">
-        <v>1695</v>
+        <v>582</v>
       </c>
       <c r="C50">
-        <v>1595</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2">
-        <v>5201</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1798</v>
+      <c r="A51">
+        <v>5848</v>
+      </c>
+      <c r="B51">
+        <v>611</v>
       </c>
       <c r="C51">
-        <v>1396</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>5277</v>
+        <v>5888</v>
       </c>
       <c r="B52">
-        <v>1565</v>
+        <v>595</v>
       </c>
       <c r="C52">
-        <v>1562</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>5419</v>
+        <v>6202</v>
       </c>
       <c r="B53">
-        <v>1698</v>
+        <v>634</v>
       </c>
       <c r="C53">
-        <v>2689</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>5617</v>
+        <v>6596</v>
       </c>
       <c r="B54">
-        <v>3120</v>
+        <v>648</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>5700</v>
+        <v>6697</v>
       </c>
       <c r="B55">
-        <v>1796</v>
+        <v>631</v>
       </c>
       <c r="C55">
-        <v>1595</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>5735</v>
+        <v>6704</v>
       </c>
       <c r="B56">
-        <v>1562</v>
+        <v>707</v>
       </c>
       <c r="C56">
-        <v>1565</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>5902</v>
+        <v>6759</v>
       </c>
       <c r="B57">
-        <v>1791</v>
+        <v>688</v>
       </c>
       <c r="C57">
-        <v>1196</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>6092</v>
+        <v>6783</v>
       </c>
       <c r="B58">
-        <v>1565</v>
+        <v>653</v>
       </c>
       <c r="C58">
-        <v>1563</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>6131</v>
+        <v>6951</v>
       </c>
       <c r="B59">
-        <v>1566</v>
+        <v>743</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>6246</v>
+        <v>6999</v>
       </c>
       <c r="B60">
-        <v>2592</v>
+        <v>733</v>
       </c>
       <c r="C60">
-        <v>2194</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>6266</v>
+        <v>7021</v>
       </c>
       <c r="B61">
-        <v>3127</v>
+        <v>704</v>
       </c>
       <c r="C61">
-        <v>1562</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>6450</v>
+        <v>7071</v>
       </c>
       <c r="B62">
-        <v>1565</v>
+        <v>783</v>
       </c>
       <c r="C62">
-        <v>3120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>6735</v>
+        <v>7085</v>
       </c>
       <c r="B63">
-        <v>2098</v>
+        <v>735</v>
       </c>
       <c r="C63">
-        <v>2792</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>6804</v>
+        <v>7088</v>
       </c>
       <c r="B64">
-        <v>1562</v>
+        <v>744</v>
       </c>
       <c r="C64">
-        <v>3124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>6843</v>
+        <v>7139</v>
       </c>
       <c r="B65">
-        <v>1561</v>
+        <v>763</v>
       </c>
       <c r="C65">
-        <v>3124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>6946</v>
+        <v>7139</v>
       </c>
       <c r="B66">
-        <v>3124</v>
+        <v>690</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>7054</v>
+        <v>7255</v>
       </c>
       <c r="B67">
-        <v>1562</v>
+        <v>767</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>7106</v>
+        <v>7375</v>
       </c>
       <c r="B68">
-        <v>1934</v>
+        <v>732</v>
       </c>
       <c r="C68">
-        <v>1562</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>7175</v>
+        <v>7484</v>
       </c>
       <c r="B69">
-        <v>1562</v>
+        <v>690</v>
       </c>
       <c r="C69">
-        <v>3731</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>7328</v>
+        <v>7495</v>
       </c>
       <c r="B70">
-        <v>2889</v>
+        <v>813</v>
       </c>
       <c r="C70">
-        <v>1196</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>7596</v>
+        <v>7549</v>
       </c>
       <c r="B71">
-        <v>3128</v>
+        <v>834</v>
       </c>
       <c r="C71">
-        <v>3123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>7617</v>
+        <v>7765</v>
       </c>
       <c r="B72">
-        <v>2390</v>
+        <v>812</v>
       </c>
       <c r="C72">
-        <v>1097</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>7992</v>
+        <v>7839</v>
       </c>
       <c r="B73">
-        <v>2493</v>
+        <v>862</v>
       </c>
       <c r="C73">
-        <v>1495</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>8011</v>
+        <v>7850</v>
       </c>
       <c r="B74">
-        <v>3124</v>
+        <v>806</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>8072</v>
+        <v>7924</v>
       </c>
       <c r="B75">
-        <v>3120</v>
+        <v>855</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>8163</v>
+        <v>8006</v>
       </c>
       <c r="B76">
-        <v>3820</v>
+        <v>844</v>
       </c>
       <c r="C76">
-        <v>897</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>8235</v>
+        <v>8150</v>
       </c>
       <c r="B77">
-        <v>3124</v>
+        <v>841</v>
       </c>
       <c r="C77">
-        <v>3124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78">
-        <v>8312</v>
-      </c>
-      <c r="B78">
-        <v>3128</v>
+      <c r="A78" s="1">
+        <v>8258</v>
+      </c>
+      <c r="B78" s="1">
+        <v>837</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>8449</v>
+        <v>8385</v>
       </c>
       <c r="B79">
-        <v>2693</v>
+        <v>798</v>
       </c>
       <c r="C79">
-        <v>797</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>8574</v>
+        <v>8393</v>
       </c>
       <c r="B80">
-        <v>4586</v>
+        <v>799</v>
       </c>
       <c r="C80">
-        <v>2004</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81">
-        <v>8612</v>
-      </c>
-      <c r="B81">
-        <v>2792</v>
+      <c r="A81" s="1">
+        <v>8490</v>
+      </c>
+      <c r="B81" s="1">
+        <v>881</v>
       </c>
       <c r="C81">
-        <v>2194</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>8643</v>
+        <v>8533</v>
       </c>
       <c r="B82">
-        <v>3124</v>
+        <v>910</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>8712</v>
+        <v>8537</v>
       </c>
       <c r="B83">
-        <v>3187</v>
+        <v>830</v>
       </c>
       <c r="C83">
-        <v>3590</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>8728</v>
+        <v>8662</v>
       </c>
       <c r="B84">
-        <v>2792</v>
+        <v>850</v>
       </c>
       <c r="C84">
-        <v>1396</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>8730</v>
+        <v>8811</v>
       </c>
       <c r="B85">
-        <v>4188</v>
+        <v>875</v>
       </c>
       <c r="C85">
-        <v>1396</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3612,164 +3602,164 @@
         <v>8850</v>
       </c>
       <c r="B86">
-        <v>2792</v>
+        <v>928</v>
       </c>
       <c r="C86">
-        <v>698</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>8922</v>
+        <v>8858</v>
       </c>
       <c r="B87">
-        <v>2792</v>
+        <v>949</v>
       </c>
       <c r="C87">
-        <v>398</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>8927</v>
+        <v>8878</v>
       </c>
       <c r="B88">
-        <v>3123</v>
+        <v>866</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>9059</v>
+        <v>8975</v>
       </c>
       <c r="B89">
-        <v>2895</v>
+        <v>945</v>
       </c>
       <c r="C89">
-        <v>399</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>9264</v>
+        <v>9020</v>
       </c>
       <c r="B90">
-        <v>1468</v>
+        <v>913</v>
       </c>
       <c r="C90">
-        <v>3127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>9270</v>
+        <v>9041</v>
       </c>
       <c r="B91">
-        <v>3989</v>
+        <v>939</v>
       </c>
       <c r="C91">
-        <v>1795</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>9275</v>
+        <v>9063</v>
       </c>
       <c r="B92">
-        <v>2892</v>
+        <v>963</v>
       </c>
       <c r="C92">
-        <v>2892</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>9282</v>
+        <v>9240</v>
       </c>
       <c r="B93">
-        <v>3127</v>
+        <v>957</v>
       </c>
       <c r="C93">
-        <v>1562</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>9293</v>
+        <v>9259</v>
       </c>
       <c r="B94">
-        <v>2896</v>
+        <v>1009</v>
       </c>
       <c r="C94">
-        <v>2554</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>9531</v>
+        <v>9378</v>
       </c>
       <c r="B95">
-        <v>3123</v>
+        <v>945</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>9659</v>
+        <v>9453</v>
       </c>
       <c r="B96">
-        <v>3124</v>
+        <v>1000</v>
       </c>
       <c r="C96">
-        <v>1562</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>9744</v>
+        <v>9482</v>
       </c>
       <c r="B97">
-        <v>3124</v>
+        <v>986</v>
       </c>
       <c r="C97">
-        <v>3124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>9850</v>
+        <v>9492</v>
       </c>
       <c r="B98">
-        <v>3291</v>
+        <v>972</v>
       </c>
       <c r="C98">
-        <v>1196</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>9851</v>
+        <v>9502</v>
       </c>
       <c r="B99">
-        <v>3127</v>
+        <v>993</v>
       </c>
       <c r="C99">
-        <v>1561</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>9862</v>
+        <v>9618</v>
       </c>
       <c r="B100">
-        <v>3789</v>
+        <v>981</v>
       </c>
       <c r="C100">
-        <v>897</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
